--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC1883-768E-44B8-910B-1E2D7B493768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12CC20A-C23B-431F-A366-099AE6F49553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10095" yWindow="2385" windowWidth="14175" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,15 +40,15 @@
     <t>message</t>
   </si>
   <si>
-    <t>#r</t>
-  </si>
-  <si>
-    <t>&lt;row &gt;
+    <t>zr</t>
+  </si>
+  <si>
+    <t>&lt;v-row &gt;
     &lt;v-col cols='12' lg='6' md='5'&gt;lllll&lt;/v-col&gt;
 &lt;/v-row&gt;</t>
   </si>
   <si>
-    <t>#p</t>
+    <t>zp</t>
   </si>
   <si>
     <t>postNews() {
@@ -61,11 +73,11 @@
     <t/>
   </si>
   <si>
-    <t>#ima</t>
+    <t>zimg</t>
   </si>
   <si>
     <t>&lt;v-card class='rounded-lg-plus' e='0'&gt;
-    &lt;v-img :src'`image`' :as/&gt;
+    &lt;v-img :src='`image`' :aspect-ratio="16 / 9 "/&gt;
 &lt;/v-card&gt;</t>
   </si>
 </sst>
@@ -73,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -123,16 +135,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,17 +449,17 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -468,23 +475,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="255">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="33" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>

--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12CC20A-C23B-431F-A366-099AE6F49553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{748C3FCC-C426-4F0D-BCAB-C95C76A08AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10095" yWindow="2385" windowWidth="14175" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>command</t>
   </si>
@@ -40,15 +40,15 @@
     <t>message</t>
   </si>
   <si>
-    <t>zr</t>
+    <t>#r</t>
   </si>
   <si>
     <t>&lt;v-row &gt;
-    &lt;v-col cols='12' lg='6' md='5'&gt;lllll&lt;/v-col&gt;
+    &lt;v-col cols='12' lg='6' xl='5'&gt;lllll&lt;/v-col&gt;
 &lt;/v-row&gt;</t>
   </si>
   <si>
-    <t>zp</t>
+    <t>#p</t>
   </si>
   <si>
     <t>postNews() {
@@ -70,15 +70,65 @@
     },</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>zimg</t>
+    <t>#v-datat</t>
+  </si>
+  <si>
+    <t>&lt;v-data-table
+                hide-default-footer
+                hide-default-header
+                dense
+                :headers="headers"
+                :items="datasets"
+                item-key="name"
+                class="elevation-1 rounded-0 text-center"
+                @click:row="infoHandleClick"
+              &gt;
+                &lt;template v-slot:header="{ props: { headers } }"&gt;
+                  &lt;thead class="secondary"&gt;
+                    &lt;tr&gt;
+                      &lt;th v-for="h in headers" :class="h.class" class="pa-5"&gt;
+                        &lt;span class="white--text d-flex justify-center"&gt;{{
+                          h.text
+                        }}&lt;/span&gt;
+                      &lt;/th&gt;
+                    &lt;/tr&gt;
+                  &lt;/thead&gt;
+                &lt;/template&gt;
+                &lt;template v-slot:item.name="{ item }"&gt;
+                  name {{ item.name }}
+                &lt;/template&gt;
+              &lt;/v-data-table&gt;
+              &lt;!-- &lt;template v-slot:item="props"&gt;
+                  &lt;tr&gt;
+                    &lt;td class="pa-5" @click="floorHandleClick(props.item)"&gt;
+                      {{ props.item.name }}
+                    &lt;/td&gt;
+                  &lt;/tr&gt;
+                &lt;/template&gt;
+              &lt;/v-data-table&gt; --&gt;
+              headers: [{ text:"name", value: "name" }],
+              datasets: [{ name:"test name" }],
+              infoHandleClick(v) { console.log("v", v); },</t>
+  </si>
+  <si>
+    <t>#img</t>
   </si>
   <si>
     <t>&lt;v-card class='rounded-lg-plus' e='0'&gt;
     &lt;v-img :src='`image`' :aspect-ratio="16 / 9 "/&gt;
 &lt;/v-card&gt;</t>
+  </si>
+  <si>
+    <t>#v-bps</t>
+  </si>
+  <si>
+    <t>:style=" $vuetify.breakpoint.mobile ? 'color' : 'color' "</t>
+  </si>
+  <si>
+    <t>#v-for</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v-for="(index, item) in 5" :key="index"</t>
   </si>
 </sst>
 </file>
@@ -447,10 +497,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="255">
+    <row r="3" spans="1:2" ht="259.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -483,20 +533,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1">
+    <row r="4" spans="1:2" ht="409.6">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="33" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45.75">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748C3FCC-C426-4F0D-BCAB-C95C76A08AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B6D8FC-EEEB-4D78-8091-EFF762178C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="2385" windowWidth="14175" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7605" yWindow="1560" windowWidth="14175" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>command</t>
   </si>
@@ -41,11 +41,6 @@
   </si>
   <si>
     <t>#r</t>
-  </si>
-  <si>
-    <t>&lt;v-row &gt;
-    &lt;v-col cols='12' lg='6' xl='5'&gt;lllll&lt;/v-col&gt;
-&lt;/v-row&gt;</t>
   </si>
   <si>
     <t>#p</t>
@@ -114,28 +109,108 @@
     <t>#img</t>
   </si>
   <si>
-    <t>&lt;v-card class='rounded-lg-plus' e='0'&gt;
+    <t>:style=" $vuetify.breakpoint.mobile ? 'color' : 'color' "</t>
+  </si>
+  <si>
+    <t>#v-for</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v-for="(item, index) in 5" :key="index"</t>
+  </si>
+  <si>
+    <t>#v-text</t>
+  </si>
+  <si>
+    <t>#v-tab</t>
+  </si>
+  <si>
+    <t>&lt;v-row justify="center"&gt;
+          &lt;v-col cols="auto"&gt;
+            &lt;v-toolbar color="transparent" elevation="0"&gt;
+              &lt;v-tabs v-model="tab" color="secondary"&gt;
+                &lt;v-tabs-slider color="secondary" /&gt;
+                &lt;v-tab class="text-h6"&gt;1&lt;/v-tab&gt;
+                &lt;v-tab class="text-h6"&gt;2&lt;/v-tab&gt;
+              &lt;/v-tabs&gt;
+            &lt;/v-toolbar&gt;
+          &lt;/v-col&gt;
+        &lt;/v-row&gt;
+        &lt;v-row justify="center"&gt;
+          &lt;v-col cols="12" lg="10"&gt;
+            &lt;v-tabs-items v-model="tab"&gt;
+              &lt;v-tab-item&gt;
+                &lt;div&gt; 1 &lt;/div&gt;
+              &lt;/v-tab-item&gt;
+ &lt;v-tab-item&gt;
+                &lt;div&gt; 2 &lt;/div&gt;
+              &lt;/v-tab-item&gt;
+            &lt;/v-tabs-items&gt;
+          &lt;/v-col&gt;
+        &lt;/v-row&gt;</t>
+  </si>
+  <si>
+    <t>&lt;v-text-field dense hide-details outlined  label=""  /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;v-card class='rounded-lg-plus' elevation="0"&gt;
     &lt;v-img :src='`image`' :aspect-ratio="16 / 9 "/&gt;
 &lt;/v-card&gt;</t>
   </si>
   <si>
-    <t>#v-bps</t>
-  </si>
-  <si>
-    <t>:style=" $vuetify.breakpoint.mobile ? 'color' : 'color' "</t>
-  </si>
-  <si>
-    <t>#v-for</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> v-for="(index, item) in 5" :key="index"</t>
+    <t>&lt;v-row  justify="center"&gt;
+    &lt;v-col cols='12' lg='6' xl='5'&gt;lllll&lt;/v-col&gt;
+&lt;/v-row&gt;</t>
+  </si>
+  <si>
+    <t>$f</t>
+  </si>
+  <si>
+    <t>exports.fetchLive = (req, res, next) =&gt; {
+  auth.getUserId(req.headers.authorization, (id, _) =&gt; {
+    let sql = ``;
+    db.query(sql, (err, results) =&gt; {
+      if (err) return next(err);
+      res.json(resp(true, results.rows, null, null));
+    });
+  });
+};</t>
+  </si>
+  <si>
+    <t>#f</t>
+  </si>
+  <si>
+    <t>fetchData() {
+      this.$axios
+        .get(`/API/student/allLive`)
+        .then((response) =&gt; {
+          if (response.data.success == "success") {
+            this.result = response.data.message;
+            result: null,
+            this.fetchData()
+          } else {
+            console.log(response.data);
+          }
+        })
+        .catch((error) =&gt; {
+          console.log(error);
+        });
+    },</t>
+  </si>
+  <si>
+    <t>#vbp</t>
+  </si>
+  <si>
+    <t>@c</t>
+  </si>
+  <si>
+    <t>@click="$router.push(``)"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -190,6 +265,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,19 +576,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,55 +596,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45.75">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="259.5">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="45.75">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B6D8FC-EEEB-4D78-8091-EFF762178C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A39E6A1-D626-4963-BFD7-1EE401B1F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="1560" windowWidth="14175" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="port" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>command</t>
   </si>
@@ -179,14 +181,92 @@
     <t>#f</t>
   </si>
   <si>
+    <t>#vbp</t>
+  </si>
+  <si>
+    <t>@c</t>
+  </si>
+  <si>
+    <t>@click="$router.push(``)"</t>
+  </si>
+  <si>
+    <t>ndsi</t>
+  </si>
+  <si>
+    <t>1dd</t>
+  </si>
+  <si>
+    <t>gogoji</t>
+  </si>
+  <si>
+    <t>#d-none</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+                        &lt;v-expand-transition&gt;
+                          &lt;div v-show="insuranceType != 2"&gt;&lt;/div&gt;
+                        &lt;/v-expand-transition&gt;
+                        &lt;v-expand-transition&gt;
+                          &lt;div v-show="insuranceType == 2"&gt;
+                            &lt;v-select dark outlined dense hide-details /&gt;
+                          &lt;/div&gt;
+                        &lt;/v-expand-transition&gt;
+                    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>id="custom-tab-items"</t>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+#custom-tab-items {
+  background-color: transparent !important;
+}
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;v-tabs-items id="custom-tab-items" v-model="tab"&gt;</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
     <t>fetchData() {
       this.$axios
-        .get(`/API/student/allLive`)
+        .get(`/admin/${this.$route.params.lesson}`)
         .then((response) =&gt; {
           if (response.data.success == "success") {
             this.result = response.data.message;
             result: null,
-            this.fetchData()
+            this.fetchData();
+          } else {
+            console.log(response.data.message_th);
+          }
+        })
+        .catch((error) =&gt; {
+          console.log(error);
+        });
+    },</t>
+  </si>
+  <si>
+    <t>postData() {
+      this.$axios
+        .post(
+          `/admin/${this.$route.params.lesson}`,
+          this.formPost
+        )
+        .then((response) =&gt; {
+          if (response.data.success == "success") {
+            alert("สำเร็จ");
+            // for (const field in this.formPostExam)
+            //   this.formPostExam[field] = null;
+           formPost:null,
+            this.fetchData();
           } else {
             console.log(response.data);
           }
@@ -195,15 +275,6 @@
           console.log(error);
         });
     },</t>
-  </si>
-  <si>
-    <t>#vbp</t>
-  </si>
-  <si>
-    <t>@c</t>
-  </si>
-  <si>
-    <t>@click="$router.push(``)"</t>
   </si>
 </sst>
 </file>
@@ -576,10 +647,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +701,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -652,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -660,28 +731,150 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E16338-CFE0-4ED2-BB54-C8A106BB9F2C}">
+  <dimension ref="D9:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B51138-BDDF-48DE-A522-B3F2D4FDDC8B}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
+      </c>
+      <c r="B2">
+        <v>2004</v>
+      </c>
+      <c r="C2">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2006</v>
+      </c>
+      <c r="C4">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>2008</v>
+      </c>
+      <c r="C6">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2009</v>
+      </c>
+      <c r="C7">
+        <v>3056</v>
       </c>
     </row>
   </sheetData>

--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A39E6A1-D626-4963-BFD7-1EE401B1F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8B64E1-DAB7-4713-8F0D-E7C10133AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>command</t>
   </si>
@@ -45,57 +46,25 @@
     <t>#r</t>
   </si>
   <si>
-    <t>#p</t>
-  </si>
-  <si>
-    <t>postNews() {
-      this.$axios
-        .post(`/admin/misc/event`, this.formNews)
-        .then((response) =&gt; {
-          if (response.data.success == "success") {
-            this.loadNews();
-            this.dialogAddNews = false;
-            this.resetForm();
-            alert(this.$t("pages.main.ssCrEvent"));
-          } else {
-            console.log(response.data);
-          }
-        })
-        .catch((error) =&gt; {
-          console.log(error);
-        });
-    },</t>
+    <t>&lt;v-row  justify="center"&gt;
+    &lt;v-col cols='12' lg='6' xl='5'&gt;lllll&lt;/v-col&gt;
+&lt;/v-row&gt;</t>
   </si>
   <si>
     <t>#v-datat</t>
   </si>
   <si>
-    <t>&lt;v-data-table
-                hide-default-footer
-                hide-default-header
-                dense
-                :headers="headers"
-                :items="datasets"
-                item-key="name"
-                class="elevation-1 rounded-0 text-center"
-                @click:row="infoHandleClick"
-              &gt;
-                &lt;template v-slot:header="{ props: { headers } }"&gt;
-                  &lt;thead class="secondary"&gt;
-                    &lt;tr&gt;
-                      &lt;th v-for="h in headers" :class="h.class" class="pa-5"&gt;
-                        &lt;span class="white--text d-flex justify-center"&gt;{{
-                          h.text
-                        }}&lt;/span&gt;
-                      &lt;/th&gt;
-                    &lt;/tr&gt;
-                  &lt;/thead&gt;
-                &lt;/template&gt;
-                &lt;template v-slot:item.name="{ item }"&gt;
-                  name {{ item.name }}
-                &lt;/template&gt;
-              &lt;/v-data-table&gt;
-              &lt;!-- &lt;template v-slot:item="props"&gt;
+    <t xml:space="preserve"> &lt;v-data-table
+        dense
+        :headers="headers"
+        :items="datasets"
+        item-key="name"
+        class="elevation-1 rounded-0 text-center"
+        @click:row="infoHandleClick"
+      &gt;
+        &lt;template v-slot:item.name="{ item }"&gt; name {{ item.name }} &lt;/template&gt;
+      &lt;/v-data-table&gt;
+      &lt;!-- &lt;template v-slot:item="props"&gt;
                   &lt;tr&gt;
                     &lt;td class="pa-5" @click="floorHandleClick(props.item)"&gt;
                       {{ props.item.name }}
@@ -103,14 +72,21 @@
                   &lt;/tr&gt;
                 &lt;/template&gt;
               &lt;/v-data-table&gt; --&gt;
-              headers: [{ text:"name", value: "name" }],
-              datasets: [{ name:"test name" }],
-              infoHandleClick(v) { console.log("v", v); },</t>
+      headers: [{ text:"name", value: "name",class:'text-center bg-secondary' }], datasets: [{ name:"test name"
+      }], infoHandleClick(v) { console.log("v", v); },</t>
   </si>
   <si>
     <t>#img</t>
   </si>
   <si>
+    <t>&lt;v-card class='rounded-lg-plus' elevation="0"&gt;
+    &lt;v-img :src='`/mock.png`' :aspect-ratio="16 / 9 "/&gt;
+&lt;/v-card&gt;</t>
+  </si>
+  <si>
+    <t>#vbp</t>
+  </si>
+  <si>
     <t>:style=" $vuetify.breakpoint.mobile ? 'color' : 'color' "</t>
   </si>
   <si>
@@ -121,6 +97,9 @@
   </si>
   <si>
     <t>#v-text</t>
+  </si>
+  <si>
+    <t>&lt;v-text-field dense hide-details outlined  label=""  /&gt;</t>
   </si>
   <si>
     <t>#v-tab</t>
@@ -151,19 +130,6 @@
         &lt;/v-row&gt;</t>
   </si>
   <si>
-    <t>&lt;v-text-field dense hide-details outlined  label=""  /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;v-card class='rounded-lg-plus' elevation="0"&gt;
-    &lt;v-img :src='`image`' :aspect-ratio="16 / 9 "/&gt;
-&lt;/v-card&gt;</t>
-  </si>
-  <si>
-    <t>&lt;v-row  justify="center"&gt;
-    &lt;v-col cols='12' lg='6' xl='5'&gt;lllll&lt;/v-col&gt;
-&lt;/v-row&gt;</t>
-  </si>
-  <si>
     <t>$f</t>
   </si>
   <si>
@@ -178,25 +144,10 @@
 };</t>
   </si>
   <si>
-    <t>#f</t>
-  </si>
-  <si>
-    <t>#vbp</t>
-  </si>
-  <si>
     <t>@c</t>
   </si>
   <si>
     <t>@click="$router.push(``)"</t>
-  </si>
-  <si>
-    <t>ndsi</t>
-  </si>
-  <si>
-    <t>1dd</t>
-  </si>
-  <si>
-    <t>gogoji</t>
   </si>
   <si>
     <t>#d-none</t>
@@ -214,26 +165,7 @@
                     &lt;/div&gt;</t>
   </si>
   <si>
-    <t>id="custom-tab-items"</t>
-  </si>
-  <si>
-    <t>&lt;style&gt;
-#custom-tab-items {
-  background-color: transparent !important;
-}
-&lt;/style&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;v-tabs-items id="custom-tab-items" v-model="tab"&gt;</t>
-  </si>
-  <si>
-    <t>atom</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>demo</t>
+    <t>#f</t>
   </si>
   <si>
     <t>fetchData() {
@@ -252,6 +184,9 @@
           console.log(error);
         });
     },</t>
+  </si>
+  <si>
+    <t>#p</t>
   </si>
   <si>
     <t>postData() {
@@ -272,16 +207,112 @@
           }
         })
         .catch((error) =&gt; {
+          alert("บางสิ่งผิดพลาด");
           console.log(error);
         });
     },</t>
+  </si>
+  <si>
+    <t>#up-img</t>
+  </si>
+  <si>
+    <t>&lt;div hidden&gt;
+      &lt;input
+        hidden
+        type="file"
+        id="profile"
+        ref="file"
+        v-on:change="uploadIMG('profile')"
+        accept="image/*"
+      /&gt;
+    &lt;/div&gt;
+    :src="getFileContent()" @click="chooseContentImage()"
+chooseContentImage() {
+      document.getElementById("profile").click();
+    },
+    uploadIMG() {
+      let file = null;
+      file = event.target.files[0];
+      let fd = new FormData();
+      fd.append("image", file);
+      this.fileVideo = event.target.files[0];
+      this.$axios
+        .post(`/upload/insurance`, fd, {
+          onUploadProgress: function (progressEvent) {
+            this.uploadVidPercentage = parseInt(
+              Math.round((progressEvent.loaded / progressEvent.total) * 100)
+            );
+          }.bind(this),
+        })
+        .then((response) =&gt; {
+          if (response.data.success == "success") {
+            this.formPost.image_url = response.data.path;
+            document.getElementById("profile").value = null;
+            alert("อัพโหลดรูป สำเร็จ");
+          } else {
+            alert(
+              response.data.message_th || this.$t("pages.alert.errorMessage")
+            );
+          }
+        })
+        .catch((error) =&gt; {
+          console.log(error.response);
+        });
+    },
+    getFileContent(path) {
+      if (path) {
+        //
+        return `${process.env.SERVER_URL}/image/${path}`;
+        return;
+        `${process.env.SERVER_URL}/image/${path}`;
+      } else {
+        return "";
+      }
+    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;v-tabs-items id="custom-tab-items" v-model="tab"&gt;</t>
+  </si>
+  <si>
+    <t>id="custom-tab-items"</t>
+  </si>
+  <si>
+    <t>&lt;style&gt;
+#custom-tab-items {
+  background-color: transparent !important;
+}
+&lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>ndsi</t>
+  </si>
+  <si>
+    <t>1dd</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>gogoji</t>
+  </si>
+  <si>
+    <t>paco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kene </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,16 +681,16 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,108 +698,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="55.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45.75">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="150">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="198">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="255">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="339">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -785,21 +816,21 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:4">
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" ht="210">
+      <c r="D11" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -809,17 +840,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B51138-BDDF-48DE-A522-B3F2D4FDDC8B}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>2004</v>
@@ -828,17 +859,17 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2006</v>
@@ -847,17 +878,17 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>2008</v>
@@ -866,15 +897,31 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>2009</v>
       </c>
       <c r="C7">
         <v>3056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>2014</v>
       </c>
     </row>
   </sheetData>

--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8B64E1-DAB7-4713-8F0D-E7C10133AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E91DCED-026A-43B4-A8B5-2FA73E343B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="port" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="port" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>command</t>
   </si>
@@ -47,7 +49,7 @@
   </si>
   <si>
     <t>&lt;v-row  justify="center"&gt;
-    &lt;v-col cols='12' lg='6' xl='5'&gt;lllll&lt;/v-col&gt;
+    &lt;v-col cols='12' md='6' xl='5'&gt;lllll&lt;/v-col&gt;
 &lt;/v-row&gt;</t>
   </si>
   <si>
@@ -130,20 +132,6 @@
         &lt;/v-row&gt;</t>
   </si>
   <si>
-    <t>$f</t>
-  </si>
-  <si>
-    <t>exports.fetchLive = (req, res, next) =&gt; {
-  auth.getUserId(req.headers.authorization, (id, _) =&gt; {
-    let sql = ``;
-    db.query(sql, (err, results) =&gt; {
-      if (err) return next(err);
-      res.json(resp(true, results.rows, null, null));
-    });
-  });
-};</t>
-  </si>
-  <si>
     <t>@c</t>
   </si>
   <si>
@@ -165,7 +153,7 @@
                     &lt;/div&gt;</t>
   </si>
   <si>
-    <t>#f</t>
+    <t>#f_f</t>
   </si>
   <si>
     <t>fetchData() {
@@ -186,7 +174,7 @@
     },</t>
   </si>
   <si>
-    <t>#p</t>
+    <t>#f_po</t>
   </si>
   <si>
     <t>postData() {
@@ -271,6 +259,243 @@
     },</t>
   </si>
   <si>
+    <t>#v-pag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   v-if="index &lt; itemPP * page &amp;&amp; itemPP * (page - 1) - 1 &lt; index"
+    &lt;div class="text-center py-10"&gt;
+      &lt;v-pagination
+        v-model="page"
+        :length="news == null ? 0 : Math.ceil(news.length / itemPP)"
+      &gt;&lt;/v-pagination&gt;&lt;/div&gt;
+      itemPP: 12,
+      page: 1,
+      news: null,</t>
+  </si>
+  <si>
+    <t>!async</t>
+  </si>
+  <si>
+    <t>exports.fetchHistory = (req, res, next) =&gt; {
+    auth.getUserId(req.headers.authorization, (id, _) =&gt; {
+        req.getConnection((err, connection) =&gt; {
+            if (err) return next(err);
+            async function productQuery() {
+                let sql = `select * from dp_product where id =${req.params.id} AND owner_id=${id};`;
+                return new Promise(resolve =&gt; {
+                    connection.query(sql, (err, results) =&gt; {
+                        if (err) return next(err);
+                        resolve(results[0]);
+                    });
+                });
+            }
+            async function historyQuery() {
+                let sql = `select * from dp_product_history 
+                where product_id =${req.params.id}
+                ORDER BY date DESC;`;
+                return new Promise(resolve =&gt; {
+                    connection.query(sql, (err, results) =&gt; {
+                        if (err) return next(err);
+                        resolve(results);
+                    });
+                });
+            }
+            async function main() {
+                let product = await productQuery();
+                let history = await historyQuery();
+                let results = {
+                    product: product,
+                    history: history,
+                };
+                res.json(resp(true, results, null, null));
+            }
+            main();
+        })
+    })
+};</t>
+  </si>
+  <si>
+    <t>!b_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+exports.fetch = (req, res, next) =&gt; {
+    auth.getUserId(req.headers.authorization, (id, _) =&gt; {
+        let sql = `select * from dp_product
+            left join (select id brand_id,name brand_name from dp_car_brand)brand on brand.brand_id = dp_product.brand_id
+            left join (select id model_id,name model_name from dp_car_model)model on model.model_id = dp_product.model_id
+            left join (select id year_id,name year_name from dp_car_year)year on year.year_id = dp_product.year_id
+            WHERE owner_id = ${id};`;
+        req.getConnection((err, connection) =&gt; {
+            if (err) return next(err);
+            connection.query(sql, (err, results) =&gt; {
+                if (err) return next(err);
+                res.json(resp(true, results, null, null));
+            });
+        });
+    });
+};
+</t>
+  </si>
+  <si>
+    <t>!b_po</t>
+  </si>
+  <si>
+    <t>exports.create = (req, res, next) =&gt; {
+    auth.getUserId(req.headers.authorization, (id, _) =&gt; {
+        let {
+            body
+        } = req;
+        body.owner_id = id
+        console.log(body);
+        let sql = `INSERT INTO dp_product SET ?;`;
+        body.image_list = JSON.stringify(body.image_list);
+        body.keyword = JSON.stringify(body.keyword);
+        req.getConnection((err, connection) =&gt; {
+            if (err) return next(err);
+            connection.query(sql, body, (err, _) =&gt; {
+                if (err) return next(err);
+                res.json(resp(true, null, null, null));
+            });
+        });
+    });
+};</t>
+  </si>
+  <si>
+    <t>!b_pu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+exports.edit = (req, res, next) =&gt; {
+    let {
+        body
+    } = req;
+    auth.getUserId(req.headers.authorization, (id, _) =&gt; {
+        let sql = `UPDATE du_shop SET ? WHERE owner_id=${id};`;
+        body.image_list = JSON.stringify(body.image_list)
+        req.getConnection((err, connection) =&gt; {
+            if (err) return next(err);
+            connection.query(sql, body, (err, _) =&gt; {
+                if (err) return next(err);
+                res.json(resp(true, null, null, null));
+            });
+        });
+    })
+};</t>
+  </si>
+  <si>
+    <t>!ms_c</t>
+  </si>
+  <si>
+    <t>CREATE TABLE dp_product (
+    id int NOT NULL AUTO_INCREMENT,
+    name CHAR(30) NOT NULL,
+    delivery_charge int NOT NULL,
+    image_url TEXT,
+    image_list JSON NOT NULL DEFAULT (JSON_ARRAY()),
+    year_id int,
+    PRIMARY KEY (id),
+    FOREIGN KEY (year_id) REFERENCES dp_car_year(id)
+);</t>
+  </si>
+  <si>
+    <t>!ms_i</t>
+  </si>
+  <si>
+    <t>INSERT INTO dp_product (name)
+VALUES ('test Product');</t>
+  </si>
+  <si>
+    <t>du_shop</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int gen</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>rela</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>image_list</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use paco;
+-- DROP TABLE dp_product;
+-- CREATE TABLE dp_product (
+--     id int NOT NULL AUTO_INCREMENT,
+--     name CHAR(30) NOT NULL,
+--     price double NOT NULL,
+--     delivery_charge double NOT NULL,
+--     weight double NOT NULL,
+--     discount double,
+--     
+--     image_url TEXT,
+--     sub_product_detail TEXT ,
+--     product_detail TEXT,
+--     
+--     keyword JSON NOT NULL DEFAULT (JSON_ARRAY()),
+--     image_list JSON NOT NULL DEFAULT (JSON_ARRAY()),
+--     
+--     insurance TEXT,
+--     period_insurance TEXT,
+--     
+--     brand_id int,
+--     engine_id int,
+--     model_id int,
+--     submodel_id int,
+--     year_id int,
+--     
+--     main_id int,
+--     sub_id int,
+--     type_id int,
+--     owner_id int NOT NULL,
+--     PRIMARY KEY (id),
+--     FOREIGN KEY (owner_id) REFERENCES du_user(id),
+--     FOREIGN KEY (brand_id) REFERENCES dp_car_brand(id),
+--     FOREIGN KEY (engine_id) REFERENCES dp_car_engine(id),
+--     FOREIGN KEY (model_id) REFERENCES dp_car_model(id),
+--     FOREIGN KEY (submodel_id) REFERENCES dp_car_submodel(id),
+--     FOREIGN KEY (year_id) REFERENCES dp_car_year(id),
+--     FOREIGN KEY (main_id) REFERENCES dp_category_main(id),
+--     FOREIGN KEY (sub_id) REFERENCES dp_category_sub(id),
+-- 	FOREIGN KEY (type_id) REFERENCES dp_category_type(id)
+-- );
+-- INSERT INTO dp_product (name, price,delivery_charge,weight,discount, brand_id, engine_id,model_id,submodel_id,year_id,main_id,sub_id,type_id)
+-- VALUES ('test Product',1150,10,10,0,1,1,1,1,1, NULL ,1, 1 );
+-- INSERT INTO dp_product(name, price, delivery_charge, weight, discount, insurance_id, brand_id, engine_id, model_id, submodel_id, year_id, main_id, type_id, sub_id, image_url, image_list, product_detail, sub_product_detail, keyword) VALUES ('asdasd', 0, 0, 0, 0, 1, 1, null, null, null, null, 2, null, null, 'paco/product/1664285058050_mock.png', paco/product/1664285068059_favicon.ico,paco/product/1664285075324_mock1.png, 'sdasdasd', 'asdasda', )
+-- select * from dp_product
+-- left join (select id,name brand_name from dp_car_brand)brand on brand.id = dp_product.brand_id
+-- left join (select id,name model_name from dp_car_model)model on model.id = dp_product.model_id
+-- left join (select id,name year_name from dp_car_year)year on year.id = dp_product.year_id
+-- left join (select id,name submodel_name from dp_car_submodel)submodel on submodel.id = dp_product.submodel_id
+-- left join (select id,name engine_name from dp_car_engine)engine on engine.id = dp_product.engine_id
+-- left join (select id,name main_name from dp_category_main)main on main.id = dp_product.main_id
+-- left join (select id,name type_name from dp_category_type)type on type.id = dp_product.type_id
+-- left join (select id,name sub_name from dp_category_sub)sub on year.id = dp_product.sub_id
+-- amount
+-- ALTER TABLE dp_product
+-- ADD COLUMN amount double NOT NULL default 0 AFTER name;
+-- select * from dp_product;
+</t>
+  </si>
+  <si>
     <t xml:space="preserve"> &lt;v-tabs-items id="custom-tab-items" v-model="tab"&gt;</t>
   </si>
   <si>
@@ -354,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -372,6 +597,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +906,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -754,52 +982,100 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="150">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" ht="18" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="198">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="255">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="339">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.6">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="167.25">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.6">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="381.75">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="336">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="321">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="167.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -809,6 +1085,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA5A934-41E9-4583-960E-66CC704D77CA}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C5A473-DD18-4003-B607-2D447F252876}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.6">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E16338-CFE0-4ED2-BB54-C8A106BB9F2C}">
   <dimension ref="D9:D11"/>
   <sheetViews>
@@ -820,17 +1181,17 @@
   <sheetData>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="4:4" ht="210">
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +1199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B51138-BDDF-48DE-A522-B3F2D4FDDC8B}">
   <dimension ref="A2:C9"/>
   <sheetViews>
@@ -850,7 +1211,7 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>2004</v>
@@ -861,7 +1222,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2005</v>
@@ -869,7 +1230,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>2006</v>
@@ -880,7 +1241,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>2007</v>
@@ -888,7 +1249,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>2008</v>
@@ -899,7 +1260,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>2009</v>
@@ -910,7 +1271,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>2012</v>
@@ -918,7 +1279,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>2014</v>

--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E91DCED-026A-43B4-A8B5-2FA73E343B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E882265-8323-4FE1-9BC7-631257F4ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="port" sheetId="2" r:id="rId5"/>
+    <sheet name="port" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>command</t>
   </si>
@@ -406,107 +404,27 @@
 VALUES ('test Product');</t>
   </si>
   <si>
-    <t>du_shop</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int gen</t>
-  </si>
-  <si>
-    <t>owner_id</t>
-  </si>
-  <si>
-    <t>rela</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>image_list</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use paco;
--- DROP TABLE dp_product;
--- CREATE TABLE dp_product (
---     id int NOT NULL AUTO_INCREMENT,
---     name CHAR(30) NOT NULL,
---     price double NOT NULL,
---     delivery_charge double NOT NULL,
---     weight double NOT NULL,
---     discount double,
---     
---     image_url TEXT,
---     sub_product_detail TEXT ,
---     product_detail TEXT,
---     
---     keyword JSON NOT NULL DEFAULT (JSON_ARRAY()),
---     image_list JSON NOT NULL DEFAULT (JSON_ARRAY()),
---     
---     insurance TEXT,
---     period_insurance TEXT,
---     
---     brand_id int,
---     engine_id int,
---     model_id int,
---     submodel_id int,
---     year_id int,
---     
---     main_id int,
---     sub_id int,
---     type_id int,
---     owner_id int NOT NULL,
---     PRIMARY KEY (id),
---     FOREIGN KEY (owner_id) REFERENCES du_user(id),
---     FOREIGN KEY (brand_id) REFERENCES dp_car_brand(id),
---     FOREIGN KEY (engine_id) REFERENCES dp_car_engine(id),
---     FOREIGN KEY (model_id) REFERENCES dp_car_model(id),
---     FOREIGN KEY (submodel_id) REFERENCES dp_car_submodel(id),
---     FOREIGN KEY (year_id) REFERENCES dp_car_year(id),
---     FOREIGN KEY (main_id) REFERENCES dp_category_main(id),
---     FOREIGN KEY (sub_id) REFERENCES dp_category_sub(id),
--- 	FOREIGN KEY (type_id) REFERENCES dp_category_type(id)
--- );
--- INSERT INTO dp_product (name, price,delivery_charge,weight,discount, brand_id, engine_id,model_id,submodel_id,year_id,main_id,sub_id,type_id)
--- VALUES ('test Product',1150,10,10,0,1,1,1,1,1, NULL ,1, 1 );
--- INSERT INTO dp_product(name, price, delivery_charge, weight, discount, insurance_id, brand_id, engine_id, model_id, submodel_id, year_id, main_id, type_id, sub_id, image_url, image_list, product_detail, sub_product_detail, keyword) VALUES ('asdasd', 0, 0, 0, 0, 1, 1, null, null, null, null, 2, null, null, 'paco/product/1664285058050_mock.png', paco/product/1664285068059_favicon.ico,paco/product/1664285075324_mock1.png, 'sdasdasd', 'asdasda', )
--- select * from dp_product
--- left join (select id,name brand_name from dp_car_brand)brand on brand.id = dp_product.brand_id
--- left join (select id,name model_name from dp_car_model)model on model.id = dp_product.model_id
--- left join (select id,name year_name from dp_car_year)year on year.id = dp_product.year_id
--- left join (select id,name submodel_name from dp_car_submodel)submodel on submodel.id = dp_product.submodel_id
--- left join (select id,name engine_name from dp_car_engine)engine on engine.id = dp_product.engine_id
--- left join (select id,name main_name from dp_category_main)main on main.id = dp_product.main_id
--- left join (select id,name type_name from dp_category_type)type on type.id = dp_product.type_id
--- left join (select id,name sub_name from dp_category_sub)sub on year.id = dp_product.sub_id
--- amount
--- ALTER TABLE dp_product
--- ADD COLUMN amount double NOT NULL default 0 AFTER name;
--- select * from dp_product;
+    <t>!ms_addc</t>
+  </si>
+  <si>
+    <t>ALTER TABLE vendors
+ADD COLUMN vendor_group INT NOT NULL;</t>
+  </si>
+  <si>
+    <t>!b_forb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for (const user of users) {  
+  if (user.id === 2) {
+    break            // exits the loop early
+  }
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;v-tabs-items id="custom-tab-items" v-model="tab"&gt;</t>
-  </si>
-  <si>
-    <t>id="custom-tab-items"</t>
-  </si>
-  <si>
-    <t>&lt;style&gt;
-#custom-tab-items {
-  background-color: transparent !important;
-}
-&lt;/style&gt;</t>
+    <t>#w_icon</t>
+  </si>
+  <si>
+    <t>https://materialdesignicons.com/</t>
   </si>
   <si>
     <t>ndsi</t>
@@ -537,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +468,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,8 +502,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -598,11 +525,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,10 +834,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,128 +1006,40 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="76.5">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{4E4EA456-678D-4D3F-A2CF-608C428C519A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA5A934-41E9-4583-960E-66CC704D77CA}">
-  <dimension ref="A2:D8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C5A473-DD18-4003-B607-2D447F252876}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="409.6">
-      <c r="A1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E16338-CFE0-4ED2-BB54-C8A106BB9F2C}">
-  <dimension ref="D9:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="9" spans="4:4">
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" ht="210">
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B51138-BDDF-48DE-A522-B3F2D4FDDC8B}">
   <dimension ref="A2:C9"/>
   <sheetViews>
@@ -1211,7 +1051,7 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>2004</v>
@@ -1222,7 +1062,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>2005</v>
@@ -1230,7 +1070,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>2006</v>
@@ -1241,7 +1081,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>2007</v>
@@ -1249,7 +1089,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>2008</v>
@@ -1260,7 +1100,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>2009</v>
@@ -1271,7 +1111,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>2012</v>
@@ -1279,7 +1119,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>2014</v>
@@ -1289,4 +1129,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1049204-FF82-41B1-AB99-E8251B3D65BE}">
+  <dimension ref="C4:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" ht="76.5">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="30.75">
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/memo/memo.xlsx
+++ b/memo/memo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\OneDrive\เดสก์ท็อป\Jame\code\tools_code_memo\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brainwave2012/Desktop/Code_Jame/tools_code_memo/memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E882265-8323-4FE1-9BC7-631257F4ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E0A69-D188-C74A-8BFA-1AB4B075F9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>command</t>
   </si>
@@ -414,6 +414,74 @@
     <t>!b_forb</t>
   </si>
   <si>
+    <t>for (const user of users) {  
+  if (user.id === 2) {
+    break            // exits the loop early
+  }
+}</t>
+  </si>
+  <si>
+    <t>#w_icon</t>
+  </si>
+  <si>
+    <t>https://materialdesignicons.com/</t>
+  </si>
+  <si>
+    <t>!f_rules</t>
+  </si>
+  <si>
+    <t>rules: {
+        requireRules: [(v) =&gt; !!v || "กรุณาใส่ข้อมูลให้ครบถ้วน"],
+        email: [
+          (v) =&gt; !!v || "กรุณากรอกข้อมูลให้ครบถ้วน",
+          (v) =&gt;
+            /^\w+([-+.']\w+)*@\w+([-.]\w+)*\.\w+([-.]\w+)*$/.test(v) ||
+            // "E-mail must be valid",
+            "รูปแบบอีเมล ไม่ถูกต้อง",
+        ],
+        usernameRules: [
+          (v) =&gt; !!v || "กรุณากรอกข้อมูลให้ครบถ้วน",
+          (v) =&gt; /^.{8,20}$/.test(v) || "8-20 ตัวอักษร",
+        ],
+        password: [
+          (v) =&gt; !!v || "กรุณากรอกข้อมูลให้ครบถ้วน",
+          (v) =&gt; {
+            const pattern =
+              /^(?=.*[a-z])(?=.*[A-Z])(?=.*[0-9])(?=.*[!@#\$%\^&amp;\*])(?=.{8,})/;
+            return (
+              pattern.test(v) ||
+              "ควรมีความยาว 8 ตัวอักษรขึ้นไป, ตัวอักษรภาษาอังกฤษพิมพ์ใหญ่ (A-Z) ตัวเลข (0-9) และ เครื่องหมายอักขระพิเศษ อย่างน้อย 1 ตัว"
+            );
+            //  "Min. 8 characters with at least one capital letter, a number and a special character.";
+          },
+        ],
+      },</t>
+  </si>
+  <si>
+    <t>ndsi</t>
+  </si>
+  <si>
+    <t>1dd</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>gogoji</t>
+  </si>
+  <si>
+    <t>paco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kene </t>
+  </si>
+  <si>
     <t xml:space="preserve">for (const user of users) {  
   if (user.id === 2) {
     break            // exits the loop early
@@ -421,41 +489,66 @@
 </t>
   </si>
   <si>
-    <t>#w_icon</t>
-  </si>
-  <si>
-    <t>https://materialdesignicons.com/</t>
-  </si>
-  <si>
-    <t>ndsi</t>
-  </si>
-  <si>
-    <t>1dd</t>
-  </si>
-  <si>
-    <t>atom</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>gogoji</t>
-  </si>
-  <si>
-    <t>paco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kene </t>
+    <t xml:space="preserve">    &lt;v-text-field
+                  dense
+                  v-model="formPost.password"
+                  :rules="rules.password"
+                  outlined
+                  label=""
+                  :append-icon="hidePassword ? 'mdi-eye-off' : 'mdi-eye'"
+                  @click:append="hidePassword = !hidePassword"
+                  :type="hidePassword ? 'password' : ''"
+                /&gt;
+                hidePassword:false</t>
+  </si>
+  <si>
+    <t>#v-text-p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;v-menu
+                ref="menuStart"
+                v-model="menuStart"
+                :close-on-content-click="false"
+                transition="scale-transition"
+                offset-y
+                min-width="auto"
+              &gt;
+                &lt;template v-slot:activator="{ on, attrs }"&gt;
+                  &lt;v-text-field
+                    outlined
+                    dense
+                    hide-details=""
+                    v-model="dateStart"
+                    :label="'วันที่เริ่ม'"
+                    readonly
+                    v-bind="attrs"
+                    v-on="on"
+                  &gt;
+                  &lt;/v-text-field&gt;
+                &lt;/template&gt;
+                &lt;v-date-picker
+                  locale="th-TH"
+                  v-model="dateStart"
+                  @change="saveStart()"
+                  :max="currentDate"
+                &gt;&lt;/v-date-picker&gt;
+              &lt;/v-menu&gt;
+               menuStart: false,
+      dateStart: null,
+      currentDate: new Date().toISOString(),
+      saveStart(date) {
+      this.$refs.menuStart.save(date);
+    },</t>
+  </si>
+  <si>
+    <t>#v-date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +569,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -528,10 +627,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,19 +934,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -862,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="55.5" customHeight="1">
+    <row r="3" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -870,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45.75">
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,7 +978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -886,7 +986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -894,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -902,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51.75" customHeight="1">
+    <row r="8" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -910,7 +1010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -918,7 +1018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="198">
+    <row r="11" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -926,7 +1026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="255">
+    <row r="12" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -934,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="339">
+    <row r="13" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -942,7 +1042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="409.6">
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -950,7 +1050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="167.25">
+    <row r="15" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -958,7 +1058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="409.6">
+    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -966,7 +1066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="381.75">
+    <row r="17" spans="1:2" ht="365" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -974,7 +1074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="336">
+    <row r="18" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -982,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="321">
+    <row r="19" spans="1:2" ht="320" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -990,7 +1090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="167.25">
+    <row r="20" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -998,7 +1098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30.75">
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1006,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30.75">
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1014,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="76.5">
+    <row r="23" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1022,12 +1122,36 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="252.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1047,11 +1171,11 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>2004</v>
@@ -1060,17 +1184,17 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>2006</v>
@@ -1079,17 +1203,17 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>2008</v>
@@ -1098,9 +1222,9 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>2009</v>
@@ -1109,17 +1233,17 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>2014</v>
@@ -1139,17 +1263,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3" ht="76.5">
+    <row r="4" spans="3:3" ht="80" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" ht="30.75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
